--- a/templates/tmpl.xlsx
+++ b/templates/tmpl.xlsx
@@ -133,9 +133,6 @@
     <t>№ п/п</t>
   </si>
   <si>
-    <t>Ежедневный мониторинг смертности от болезней системы кровообращения -${date}</t>
-  </si>
-  <si>
     <t>${table:grs.gr2}</t>
   </si>
   <si>
@@ -332,6 +329,9 @@
   </si>
   <si>
     <t>${table:grs.username}</t>
+  </si>
+  <si>
+    <t>Ежедневный мониторинг смертности от болезней системы кровообращения ${date}</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
   <dimension ref="A4:AH11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4:AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1049,7 @@
   <sheetData>
     <row r="4" spans="1:34" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -1458,204 +1458,204 @@
     <row r="10" spans="1:34" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="F10" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="G10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="H10" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="I10" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="J10" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="K10" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="L10" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="M10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="N10" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="O10" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="P10" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="23" t="s">
+      <c r="Q10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="Q10" s="23" t="s">
+      <c r="R10" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="S10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="S10" s="23" t="s">
+      <c r="T10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="T10" s="23" t="s">
+      <c r="U10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="U10" s="23" t="s">
+      <c r="V10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="V10" s="23" t="s">
+      <c r="W10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="W10" s="23" t="s">
+      <c r="X10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="X10" s="23" t="s">
+      <c r="Y10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Y10" s="23" t="s">
+      <c r="Z10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="Z10" s="23" t="s">
+      <c r="AA10" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AA10" s="23" t="s">
+      <c r="AB10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="AB10" s="23" t="s">
+      <c r="AC10" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="AC10" s="23" t="s">
+      <c r="AD10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="AD10" s="23" t="s">
+      <c r="AE10" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AE10" s="23" t="s">
+      <c r="AF10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AF10" s="23" t="s">
+      <c r="AG10" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="AG10" s="23" t="s">
+      <c r="AH10" s="23" t="s">
         <v>70</v>
-      </c>
-      <c r="AH10" s="23" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:34" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="E11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="F11" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="G11" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="H11" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="I11" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="J11" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="K11" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="L11" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="M11" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="N11" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="O11" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="P11" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="Q11" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="Q11" s="23" t="s">
+      <c r="R11" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="S11" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="S11" s="23" t="s">
+      <c r="T11" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="T11" s="23" t="s">
+      <c r="U11" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="U11" s="23" t="s">
+      <c r="V11" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="V11" s="23" t="s">
+      <c r="W11" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="W11" s="23" t="s">
+      <c r="X11" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="X11" s="23" t="s">
+      <c r="Y11" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="Y11" s="23" t="s">
+      <c r="Z11" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="Z11" s="23" t="s">
+      <c r="AA11" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="AA11" s="23" t="s">
+      <c r="AB11" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="AB11" s="23" t="s">
+      <c r="AC11" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="AC11" s="23" t="s">
+      <c r="AD11" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="AD11" s="23" t="s">
+      <c r="AE11" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="AE11" s="23" t="s">
+      <c r="AF11" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="AF11" s="23" t="s">
+      <c r="AG11" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="AG11" s="23" t="s">
+      <c r="AH11" s="23" t="s">
         <v>103</v>
-      </c>
-      <c r="AH11" s="23" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/templates/tmpl.xlsx
+++ b/templates/tmpl.xlsx
@@ -1021,7 +1021,7 @@
   <dimension ref="A4:AH11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:AG4"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
